--- a/data/Fiscalite_italienne/abruzzo.xlsx
+++ b/data/Fiscalite_italienne/abruzzo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master biostat\SEMESTRE2\Ducharme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christelle\LesNumeros\data\Fiscalite_italienne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BEB8D68-5749-43A1-A799-6AE9B0BEE8D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A264E3E-E3E0-4005-990D-6BF992ED591B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14655" yWindow="2280" windowWidth="14025" windowHeight="11385" xr2:uid="{652FD0D1-1E6E-40C4-AB57-42D7ABFC564B}"/>
+    <workbookView xWindow="14430" yWindow="2580" windowWidth="14025" windowHeight="11385" xr2:uid="{652FD0D1-1E6E-40C4-AB57-42D7ABFC564B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
